--- a/data/datasets/三个样本.xlsx
+++ b/data/datasets/三个样本.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangyan/hubbert_predict/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAA1CE3-840F-E841-BA2D-4DE0692E4AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23020" windowHeight="9460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21274" windowHeight="8605"/>
   </bookViews>
   <sheets>
     <sheet name="样本1" sheetId="1" r:id="rId1"/>
     <sheet name="样本2" sheetId="2" r:id="rId2"/>
     <sheet name="样本3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -25,57 +19,387 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>年份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储量1</t>
   </si>
   <si>
     <t>储量2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储量1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>储量3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -83,9 +407,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -93,19 +659,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -154,7 +764,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,26 +797,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,23 +832,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -426,24 +1002,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.82882882882883" defaultRowHeight="14.1" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.8288288288288" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -451,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -919,30 +1496,32 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.82882882882883" defaultRowHeight="14.1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1346,23 +1925,25 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.82882882882883" defaultRowHeight="14.1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1409,7 +1990,7 @@
         <v>1990</v>
       </c>
       <c r="B6">
-        <v>178.01999999999998</v>
+        <v>178.02</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1417,7 +1998,7 @@
         <v>1991</v>
       </c>
       <c r="B7">
-        <v>210.01000000000002</v>
+        <v>210.01</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1425,7 +2006,7 @@
         <v>1992</v>
       </c>
       <c r="B8">
-        <v>235.32999999999998</v>
+        <v>235.33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1433,7 +2014,7 @@
         <v>1993</v>
       </c>
       <c r="B9">
-        <v>565.4799999999999</v>
+        <v>565.48</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1441,7 +2022,7 @@
         <v>1994</v>
       </c>
       <c r="B10">
-        <v>307.65999999999997</v>
+        <v>307.66</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1457,7 +2038,7 @@
         <v>1996</v>
       </c>
       <c r="B12">
-        <v>501.15999999999997</v>
+        <v>501.16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1489,7 +2070,7 @@
         <v>2000</v>
       </c>
       <c r="B16">
-        <v>609.18999999999994</v>
+        <v>609.19</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1497,7 +2078,7 @@
         <v>2001</v>
       </c>
       <c r="B17">
-        <v>118.30000000000001</v>
+        <v>118.3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1513,7 +2094,7 @@
         <v>2003</v>
       </c>
       <c r="B19">
-        <v>598.83999999999992</v>
+        <v>598.84</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1521,7 +2102,7 @@
         <v>2004</v>
       </c>
       <c r="B20">
-        <v>1885.5300000000002</v>
+        <v>1885.53</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1529,7 +2110,7 @@
         <v>2005</v>
       </c>
       <c r="B21">
-        <v>2243.5299999999997</v>
+        <v>2243.53</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1561,7 +2142,7 @@
         <v>2009</v>
       </c>
       <c r="B25">
-        <v>2585.9900000000002</v>
+        <v>2585.99</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1577,7 +2158,7 @@
         <v>2011</v>
       </c>
       <c r="B27">
-        <v>2885.2200000000003</v>
+        <v>2885.22</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1585,7 +2166,7 @@
         <v>2012</v>
       </c>
       <c r="B28">
-        <v>3382.5299999999997</v>
+        <v>3382.53</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1593,7 +2174,7 @@
         <v>2013</v>
       </c>
       <c r="B29">
-        <v>4949.9799999999996</v>
+        <v>4949.98</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1633,7 +2214,7 @@
         <v>2018</v>
       </c>
       <c r="B34">
-        <v>473.36000000000007</v>
+        <v>473.36</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1641,7 +2222,7 @@
         <v>2019</v>
       </c>
       <c r="B35">
-        <v>1955.8499999999997</v>
+        <v>1955.85</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1653,7 +2234,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/datasets/三个样本.xlsx
+++ b/data/datasets/三个样本.xlsx
@@ -1,213 +1,192 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21274" windowHeight="8605"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21274" windowHeight="8605" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="样本1" sheetId="1" r:id="rId1"/>
-    <sheet name="样本2" sheetId="2" r:id="rId2"/>
-    <sheet name="样本3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="样本1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="样本2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="样本3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="样本1_平滑处理" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
-  <si>
-    <t>年份</t>
-  </si>
-  <si>
-    <t>储量1</t>
-  </si>
-  <si>
-    <t>储量2</t>
-  </si>
-  <si>
-    <t>储量3</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="22">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -507,159 +486,160 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -713,11 +693,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1006,1235 +1049,1748 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" sqref="A1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82882882882883" defaultRowHeight="14.1" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.828828828828829" defaultRowHeight="14.1"/>
   <cols>
-    <col min="2" max="2" width="11.8288288288288" customWidth="1"/>
+    <col width="11.8288288288288" customWidth="1" style="2" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>储量1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1963</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>1964</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>1965</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>27087</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>5936</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>1967</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>1968</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>1969</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1963</v>
-      </c>
-      <c r="B2">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1964</v>
-      </c>
-      <c r="B3">
-        <v>2675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1965</v>
-      </c>
-      <c r="B4">
-        <v>27087</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1966</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5936</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>1967</v>
-      </c>
-      <c r="B6">
-        <v>5124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>1968</v>
-      </c>
-      <c r="B7">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>1969</v>
-      </c>
-      <c r="B8">
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>9196</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>1971</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>1972</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>1973</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>1974</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>5391</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>7569</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>1976</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>1970</v>
-      </c>
-      <c r="B9">
-        <v>9196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>1971</v>
-      </c>
-      <c r="B10">
-        <v>2241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>1972</v>
-      </c>
-      <c r="B11">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>1973</v>
-      </c>
-      <c r="B12">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>1974</v>
-      </c>
-      <c r="B13">
-        <v>5391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>1975</v>
-      </c>
-      <c r="B14">
-        <v>7569</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>1976</v>
-      </c>
-      <c r="B15">
-        <v>2491</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>1977</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" s="0" t="n">
         <v>1978</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" s="0" t="n">
         <v>1979</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>1853</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" s="0" t="n">
         <v>1980</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>1108</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" s="0" t="n">
         <v>1981</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>4451</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" s="0" t="n">
         <v>1982</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>2547</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" s="0" t="n">
         <v>1983</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>9279</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" s="0" t="n">
         <v>1984</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>16476</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" s="0" t="n">
         <v>1985</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>7253</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" s="0" t="n">
         <v>1986</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>8844</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" s="0" t="n">
         <v>1987</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>2493</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" s="0" t="n">
         <v>1988</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>4212</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" s="0" t="n">
         <v>1989</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>4656</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" s="0" t="n">
         <v>1990</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>4434</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" s="0" t="n">
         <v>1991</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>4585</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" s="0" t="n">
         <v>1992</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>2750</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" s="0" t="n">
         <v>1993</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>2203</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" s="0" t="n">
         <v>1994</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>4858</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
+    <row r="34">
+      <c r="A34" s="0" t="n">
         <v>1995</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>2954</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" s="0" t="n">
         <v>1996</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>3553</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" s="0" t="n">
         <v>1997</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>5364</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
+    <row r="37">
+      <c r="A37" s="0" t="n">
         <v>1998</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>4654</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
+    <row r="38">
+      <c r="A38" s="0" t="n">
         <v>1999</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>4609</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
+    <row r="39">
+      <c r="A39" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>5246</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
+    <row r="40">
+      <c r="A40" s="0" t="n">
         <v>2001</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>4252</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
+    <row r="41">
+      <c r="A41" s="0" t="n">
         <v>2002</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>5074</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
+    <row r="42">
+      <c r="A42" s="0" t="n">
         <v>2003</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>9111</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
+    <row r="43">
+      <c r="A43" s="0" t="n">
         <v>2004</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>5245</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
+    <row r="44">
+      <c r="A44" s="0" t="n">
         <v>2005</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>5467</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
+    <row r="45">
+      <c r="A45" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>5110</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
+    <row r="46">
+      <c r="A46" s="0" t="n">
         <v>2007</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>7462</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
+    <row r="47">
+      <c r="A47" s="0" t="n">
         <v>2008</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>6375</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
+    <row r="48">
+      <c r="A48" s="0" t="n">
         <v>2009</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>5865</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
+    <row r="49">
+      <c r="A49" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>5363</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
+    <row r="50">
+      <c r="A50" s="0" t="n">
         <v>2011</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>10095</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
+    <row r="51">
+      <c r="A51" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>3451</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
+    <row r="52">
+      <c r="A52" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>868</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
+    <row r="53">
+      <c r="A53" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>1417</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
+    <row r="54">
+      <c r="A54" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>829</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
+    <row r="55">
+      <c r="A55" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>774</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
+    <row r="56">
+      <c r="A56" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
+    <row r="57">
+      <c r="A57" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>1175</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
+    <row r="58">
+      <c r="A58" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>1050</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
+    <row r="59">
+      <c r="A59" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>1797</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" sqref="A1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82882882882883" defaultRowHeight="14.1" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.828828828828829" defaultRowHeight="14.1"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>储量2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1971</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>1972</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1971</v>
-      </c>
-      <c r="B2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1972</v>
-      </c>
-      <c r="B3">
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>1973</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1973</v>
-      </c>
-      <c r="B4">
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>1974</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>1976</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>1979</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1974</v>
-      </c>
-      <c r="B5">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>1975</v>
-      </c>
-      <c r="B6">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>1976</v>
-      </c>
-      <c r="B7">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>1977</v>
-      </c>
-      <c r="B8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>1978</v>
-      </c>
-      <c r="B9">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>1979</v>
-      </c>
-      <c r="B10">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>1980</v>
-      </c>
-      <c r="B11">
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>1981</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>1982</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>1981</v>
-      </c>
-      <c r="B12">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>1982</v>
-      </c>
-      <c r="B13">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>1983</v>
-      </c>
-      <c r="B14">
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>1984</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>1984</v>
-      </c>
-      <c r="B15">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>1985</v>
-      </c>
-      <c r="B16">
+    <row r="17">
+      <c r="A17" s="0" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>1986</v>
-      </c>
-      <c r="B17">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>1987</v>
-      </c>
-      <c r="B18">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>1988</v>
-      </c>
-      <c r="B19">
+    <row r="20">
+      <c r="A20" s="0" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1989</v>
-      </c>
-      <c r="B20">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>1990</v>
-      </c>
-      <c r="B21">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>1991</v>
-      </c>
-      <c r="B22">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>1992</v>
-      </c>
-      <c r="B23">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>1993</v>
-      </c>
-      <c r="B24">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>1994</v>
-      </c>
-      <c r="B25">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>1995</v>
-      </c>
-      <c r="B26">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>1996</v>
-      </c>
-      <c r="B27">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>1997</v>
-      </c>
-      <c r="B28">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>1998</v>
-      </c>
-      <c r="B29">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>1999</v>
-      </c>
-      <c r="B30">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>2000</v>
-      </c>
-      <c r="B31">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>2001</v>
-      </c>
-      <c r="B32">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>2002</v>
-      </c>
-      <c r="B33">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>2003</v>
-      </c>
-      <c r="B34">
+    <row r="35">
+      <c r="A35" s="0" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>2004</v>
-      </c>
-      <c r="B35">
+    <row r="36">
+      <c r="A36" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1019.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>2005</v>
-      </c>
-      <c r="B36">
-        <v>1019.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>2006</v>
-      </c>
-      <c r="B37">
-        <v>55.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>2007</v>
-      </c>
-      <c r="B38">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>2008</v>
-      </c>
-      <c r="B39">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>2009</v>
-      </c>
-      <c r="B40">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>2010</v>
-      </c>
-      <c r="B41">
+    <row r="42">
+      <c r="A42" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>2011</v>
-      </c>
-      <c r="B42">
+    <row r="43">
+      <c r="A43" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B45" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>2012</v>
-      </c>
-      <c r="B43">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>2013</v>
-      </c>
-      <c r="B44">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>2014</v>
-      </c>
-      <c r="B45">
+    <row r="46">
+      <c r="A46" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B46" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>2015</v>
-      </c>
-      <c r="B46">
+    <row r="47">
+      <c r="A47" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B48" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>2016</v>
-      </c>
-      <c r="B47">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>2017</v>
-      </c>
-      <c r="B48">
+    <row r="49">
+      <c r="A49" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B50" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>2018</v>
-      </c>
-      <c r="B49">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>2019</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
+    <row r="51">
+      <c r="A51" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" sqref="A1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82882882882883" defaultRowHeight="14.1" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.828828828828829" defaultRowHeight="14.1"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>储量3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
         <v>1986</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>77.47</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>1987</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="0" t="n">
         <v>1988</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>211.77</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>1989</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>172.1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" s="0" t="n">
         <v>1990</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>178.02</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" s="0" t="n">
         <v>1991</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>210.01</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" s="0" t="n">
         <v>1992</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>235.33</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" s="0" t="n">
         <v>1993</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>565.48</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" s="0" t="n">
         <v>1994</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>307.66</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" s="0" t="n">
         <v>1995</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>353.55</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" s="0" t="n">
         <v>1996</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>501.16</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" s="0" t="n">
         <v>1997</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>380.53</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" s="0" t="n">
         <v>1998</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>376.59</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" s="0" t="n">
         <v>1999</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>453.65</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="B16">
-        <v>609.19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
+      <c r="B16" s="0" t="n">
+        <v>609.1900000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n">
         <v>2001</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>118.3</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" s="0" t="n">
         <v>2002</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>721.98</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" s="0" t="n">
         <v>2003</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>598.84</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" s="0" t="n">
         <v>2004</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>1885.53</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" s="0" t="n">
         <v>2005</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>2243.53</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>2258.9</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" s="0" t="n">
         <v>2007</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>1335.52</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" s="0" t="n">
         <v>2008</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>1422.04</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" s="0" t="n">
         <v>2009</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>2585.99</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>1171.19</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" s="0" t="n">
         <v>2011</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>2885.22</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>3382.53</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>4949.98</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>163.82</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>2185.94</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>1632.11</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>682.96</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
+    <row r="34">
+      <c r="A34" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>473.36</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>1955.85</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>2177.56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>实际值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1963</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1964</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6263</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1965</v>
+      </c>
+      <c r="B4" t="n">
+        <v>21815</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8168</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1967</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1968</v>
+      </c>
+      <c r="B7" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1969</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7330</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1971</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1972</v>
+      </c>
+      <c r="B11" t="n">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1973</v>
+      </c>
+      <c r="B12" t="n">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1974</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6972</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1976</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B16" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B17" t="n">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1979</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1981</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1982</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B22" t="n">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1984</v>
+      </c>
+      <c r="B23" t="n">
+        <v>14626</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8824</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7646</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5088</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4739</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5013</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5638</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B42" t="n">
+        <v>8218</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5705</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5268</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5463</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B46" t="n">
+        <v>7104</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6474</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5668</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B49" t="n">
+        <v>6329</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B50" t="n">
+        <v>8957</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B54" t="n">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B55" t="n">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B56" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1752</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/datasets/三个样本.xlsx
+++ b/data/datasets/三个样本.xlsx
@@ -1,42 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangyan/hubbert_predict/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zongdianliu/python/prophet-backend/data/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAA1CE3-840F-E841-BA2D-4DE0692E4AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D85D418-9D06-D848-BF2F-AA05E0F3F95D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23020" windowHeight="9460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="760" windowWidth="22140" windowHeight="11820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="样本1" sheetId="1" r:id="rId1"/>
     <sheet name="样本2" sheetId="2" r:id="rId2"/>
     <sheet name="样本3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>年份</t>
+  </si>
+  <si>
+    <t>实际值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>储量2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储量1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储量3</t>
+    <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,11 +84,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -435,15 +431,15 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -451,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -928,11 +924,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1355,21 +1351,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1409,7 +1405,7 @@
         <v>1990</v>
       </c>
       <c r="B6">
-        <v>178.01999999999998</v>
+        <v>178.02</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1417,7 +1413,7 @@
         <v>1991</v>
       </c>
       <c r="B7">
-        <v>210.01000000000002</v>
+        <v>210.01</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1425,7 +1421,7 @@
         <v>1992</v>
       </c>
       <c r="B8">
-        <v>235.32999999999998</v>
+        <v>235.33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1441,7 +1437,7 @@
         <v>1994</v>
       </c>
       <c r="B10">
-        <v>307.65999999999997</v>
+        <v>307.66000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1457,7 +1453,7 @@
         <v>1996</v>
       </c>
       <c r="B12">
-        <v>501.15999999999997</v>
+        <v>501.16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1497,7 +1493,7 @@
         <v>2001</v>
       </c>
       <c r="B17">
-        <v>118.30000000000001</v>
+        <v>118.3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1521,7 +1517,7 @@
         <v>2004</v>
       </c>
       <c r="B20">
-        <v>1885.5300000000002</v>
+        <v>1885.53</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1529,7 +1525,7 @@
         <v>2005</v>
       </c>
       <c r="B21">
-        <v>2243.5299999999997</v>
+        <v>2243.5300000000002</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1561,7 +1557,7 @@
         <v>2009</v>
       </c>
       <c r="B25">
-        <v>2585.9900000000002</v>
+        <v>2585.9899999999998</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1577,7 +1573,7 @@
         <v>2011</v>
       </c>
       <c r="B27">
-        <v>2885.2200000000003</v>
+        <v>2885.22</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1585,7 +1581,7 @@
         <v>2012</v>
       </c>
       <c r="B28">
-        <v>3382.5299999999997</v>
+        <v>3382.53</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1633,7 +1629,7 @@
         <v>2018</v>
       </c>
       <c r="B34">
-        <v>473.36000000000007</v>
+        <v>473.36000000000013</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1641,7 +1637,7 @@
         <v>2019</v>
       </c>
       <c r="B35">
-        <v>1955.8499999999997</v>
+        <v>1955.85</v>
       </c>
     </row>
     <row r="36" spans="1:2">

--- a/data/datasets/三个样本.xlsx
+++ b/data/datasets/三个样本.xlsx
@@ -1,42 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangyan/hubbert_predict/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dblab3\prophet-backend\data\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAA1CE3-840F-E841-BA2D-4DE0692E4AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D38FB0-8614-4408-938C-871D210E9288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23020" windowHeight="9460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="样本1" sheetId="1" r:id="rId1"/>
     <sheet name="样本2" sheetId="2" r:id="rId2"/>
     <sheet name="样本3" sheetId="3" r:id="rId3"/>
+    <sheet name="样本1_平滑处理" sheetId="4" r:id="rId4"/>
+    <sheet name="样本2_平滑处理" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>年份</t>
+  </si>
+  <si>
+    <t>实际值</t>
+  </si>
+  <si>
+    <t>实际值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>储量2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储量1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储量3</t>
+    <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -44,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,11 +89,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -435,18 +436,18 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.84375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1963</v>
       </c>
@@ -462,7 +463,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1964</v>
       </c>
@@ -470,7 +471,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1965</v>
       </c>
@@ -478,7 +479,7 @@
         <v>27087</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1966</v>
       </c>
@@ -486,7 +487,7 @@
         <v>5936</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1967</v>
       </c>
@@ -494,7 +495,7 @@
         <v>5124</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1968</v>
       </c>
@@ -502,7 +503,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1969</v>
       </c>
@@ -510,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1970</v>
       </c>
@@ -518,7 +519,7 @@
         <v>9196</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1971</v>
       </c>
@@ -526,7 +527,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1972</v>
       </c>
@@ -534,7 +535,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1973</v>
       </c>
@@ -542,7 +543,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1974</v>
       </c>
@@ -550,7 +551,7 @@
         <v>5391</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1975</v>
       </c>
@@ -558,7 +559,7 @@
         <v>7569</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1976</v>
       </c>
@@ -566,7 +567,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1977</v>
       </c>
@@ -574,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1978</v>
       </c>
@@ -582,7 +583,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1979</v>
       </c>
@@ -590,7 +591,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1980</v>
       </c>
@@ -598,7 +599,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1981</v>
       </c>
@@ -606,7 +607,7 @@
         <v>4451</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1982</v>
       </c>
@@ -614,7 +615,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1983</v>
       </c>
@@ -622,7 +623,7 @@
         <v>9279</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1984</v>
       </c>
@@ -630,7 +631,7 @@
         <v>16476</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1985</v>
       </c>
@@ -638,7 +639,7 @@
         <v>7253</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1986</v>
       </c>
@@ -646,7 +647,7 @@
         <v>8844</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1987</v>
       </c>
@@ -654,7 +655,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1988</v>
       </c>
@@ -662,7 +663,7 @@
         <v>4212</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1989</v>
       </c>
@@ -670,7 +671,7 @@
         <v>4656</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1990</v>
       </c>
@@ -678,7 +679,7 @@
         <v>4434</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1991</v>
       </c>
@@ -686,7 +687,7 @@
         <v>4585</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1992</v>
       </c>
@@ -694,7 +695,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1993</v>
       </c>
@@ -702,7 +703,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1994</v>
       </c>
@@ -710,7 +711,7 @@
         <v>4858</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1995</v>
       </c>
@@ -718,7 +719,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1996</v>
       </c>
@@ -726,7 +727,7 @@
         <v>3553</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1997</v>
       </c>
@@ -734,7 +735,7 @@
         <v>5364</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1998</v>
       </c>
@@ -742,7 +743,7 @@
         <v>4654</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1999</v>
       </c>
@@ -750,7 +751,7 @@
         <v>4609</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2000</v>
       </c>
@@ -758,7 +759,7 @@
         <v>5246</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2001</v>
       </c>
@@ -766,7 +767,7 @@
         <v>4252</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2002</v>
       </c>
@@ -774,7 +775,7 @@
         <v>5074</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2003</v>
       </c>
@@ -782,7 +783,7 @@
         <v>9111</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2004</v>
       </c>
@@ -790,7 +791,7 @@
         <v>5245</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2005</v>
       </c>
@@ -798,7 +799,7 @@
         <v>5467</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2006</v>
       </c>
@@ -806,7 +807,7 @@
         <v>5110</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2007</v>
       </c>
@@ -814,7 +815,7 @@
         <v>7462</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2008</v>
       </c>
@@ -822,7 +823,7 @@
         <v>6375</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2009</v>
       </c>
@@ -830,7 +831,7 @@
         <v>5865</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2010</v>
       </c>
@@ -838,7 +839,7 @@
         <v>5363</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2011</v>
       </c>
@@ -846,7 +847,7 @@
         <v>10095</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2012</v>
       </c>
@@ -854,7 +855,7 @@
         <v>3451</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2013</v>
       </c>
@@ -862,7 +863,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2014</v>
       </c>
@@ -870,7 +871,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2015</v>
       </c>
@@ -878,7 +879,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2016</v>
       </c>
@@ -886,7 +887,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2017</v>
       </c>
@@ -894,7 +895,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2018</v>
       </c>
@@ -902,7 +903,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2019</v>
       </c>
@@ -910,7 +911,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2020</v>
       </c>
@@ -928,24 +929,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1971</v>
       </c>
@@ -953,7 +954,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1972</v>
       </c>
@@ -961,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1973</v>
       </c>
@@ -969,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1974</v>
       </c>
@@ -977,7 +978,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1975</v>
       </c>
@@ -985,7 +986,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1976</v>
       </c>
@@ -993,7 +994,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1977</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1978</v>
       </c>
@@ -1009,7 +1010,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1979</v>
       </c>
@@ -1017,7 +1018,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1980</v>
       </c>
@@ -1025,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1981</v>
       </c>
@@ -1033,7 +1034,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1982</v>
       </c>
@@ -1041,7 +1042,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1983</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1984</v>
       </c>
@@ -1057,7 +1058,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1985</v>
       </c>
@@ -1065,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1986</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1987</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1988</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1989</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1990</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1991</v>
       </c>
@@ -1113,7 +1114,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1992</v>
       </c>
@@ -1121,7 +1122,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1993</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1994</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1995</v>
       </c>
@@ -1145,7 +1146,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1996</v>
       </c>
@@ -1153,7 +1154,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1997</v>
       </c>
@@ -1161,7 +1162,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1998</v>
       </c>
@@ -1169,7 +1170,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1999</v>
       </c>
@@ -1177,7 +1178,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2000</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2001</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2002</v>
       </c>
@@ -1201,7 +1202,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2003</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2004</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2005</v>
       </c>
@@ -1225,7 +1226,7 @@
         <v>1019.5</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2006</v>
       </c>
@@ -1233,7 +1234,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2007</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2008</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2009</v>
       </c>
@@ -1257,7 +1258,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2010</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2011</v>
       </c>
@@ -1273,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2012</v>
       </c>
@@ -1281,7 +1282,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2013</v>
       </c>
@@ -1289,7 +1290,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2014</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2015</v>
       </c>
@@ -1305,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2016</v>
       </c>
@@ -1313,7 +1314,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2017</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -1329,7 +1330,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2019</v>
       </c>
@@ -1337,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2020</v>
       </c>
@@ -1355,24 +1356,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1986</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>77.47</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1987</v>
       </c>
@@ -1388,7 +1389,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1988</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>211.77</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1989</v>
       </c>
@@ -1404,31 +1405,31 @@
         <v>172.1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1990</v>
       </c>
       <c r="B6">
-        <v>178.01999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>178.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1991</v>
       </c>
       <c r="B7">
-        <v>210.01000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>210.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1992</v>
       </c>
       <c r="B8">
-        <v>235.32999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>235.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1993</v>
       </c>
@@ -1436,15 +1437,15 @@
         <v>565.4799999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1994</v>
       </c>
       <c r="B10">
-        <v>307.65999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>307.66000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1995</v>
       </c>
@@ -1452,15 +1453,15 @@
         <v>353.55</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1996</v>
       </c>
       <c r="B12">
-        <v>501.15999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>501.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1997</v>
       </c>
@@ -1468,7 +1469,7 @@
         <v>380.53</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1998</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>376.59</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1999</v>
       </c>
@@ -1484,7 +1485,7 @@
         <v>453.65</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2000</v>
       </c>
@@ -1492,15 +1493,15 @@
         <v>609.18999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2001</v>
       </c>
       <c r="B17">
-        <v>118.30000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>118.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2002</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>721.98</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2003</v>
       </c>
@@ -1516,23 +1517,23 @@
         <v>598.83999999999992</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2004</v>
       </c>
       <c r="B20">
-        <v>1885.5300000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>1885.53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2005</v>
       </c>
       <c r="B21">
-        <v>2243.5299999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>2243.5300000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2006</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>2258.9</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2007</v>
       </c>
@@ -1548,7 +1549,7 @@
         <v>1335.52</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2008</v>
       </c>
@@ -1556,15 +1557,15 @@
         <v>1422.04</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2009</v>
       </c>
       <c r="B25">
-        <v>2585.9900000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>2585.9899999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2010</v>
       </c>
@@ -1572,23 +1573,23 @@
         <v>1171.19</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2011</v>
       </c>
       <c r="B27">
-        <v>2885.2200000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>2885.22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2012</v>
       </c>
       <c r="B28">
-        <v>3382.5299999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>3382.53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2013</v>
       </c>
@@ -1596,7 +1597,7 @@
         <v>4949.9799999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2014</v>
       </c>
@@ -1604,7 +1605,7 @@
         <v>163.82</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2015</v>
       </c>
@@ -1612,7 +1613,7 @@
         <v>2185.94</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2016</v>
       </c>
@@ -1620,7 +1621,7 @@
         <v>1632.11</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2017</v>
       </c>
@@ -1628,23 +1629,23 @@
         <v>682.96</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2018</v>
       </c>
       <c r="B34">
-        <v>473.36000000000007</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>473.36000000000013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2019</v>
       </c>
       <c r="B35">
-        <v>1955.8499999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>1955.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -1656,4 +1657,912 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1963</v>
+      </c>
+      <c r="B2">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1964</v>
+      </c>
+      <c r="B3">
+        <v>6263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1965</v>
+      </c>
+      <c r="B4">
+        <v>21815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1966</v>
+      </c>
+      <c r="B5">
+        <v>8168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1967</v>
+      </c>
+      <c r="B6">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1968</v>
+      </c>
+      <c r="B7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1969</v>
+      </c>
+      <c r="B8">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1970</v>
+      </c>
+      <c r="B9">
+        <v>7330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1971</v>
+      </c>
+      <c r="B10">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1972</v>
+      </c>
+      <c r="B11">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1973</v>
+      </c>
+      <c r="B12">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1974</v>
+      </c>
+      <c r="B13">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1975</v>
+      </c>
+      <c r="B14">
+        <v>6972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1976</v>
+      </c>
+      <c r="B15">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1977</v>
+      </c>
+      <c r="B16">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1978</v>
+      </c>
+      <c r="B17">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1979</v>
+      </c>
+      <c r="B18">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1980</v>
+      </c>
+      <c r="B19">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1981</v>
+      </c>
+      <c r="B20">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1982</v>
+      </c>
+      <c r="B21">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1983</v>
+      </c>
+      <c r="B22">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1984</v>
+      </c>
+      <c r="B23">
+        <v>14626</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1985</v>
+      </c>
+      <c r="B24">
+        <v>8824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1986</v>
+      </c>
+      <c r="B25">
+        <v>7646</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1987</v>
+      </c>
+      <c r="B26">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1988</v>
+      </c>
+      <c r="B27">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1989</v>
+      </c>
+      <c r="B28">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1990</v>
+      </c>
+      <c r="B29">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1991</v>
+      </c>
+      <c r="B30">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1992</v>
+      </c>
+      <c r="B31">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1993</v>
+      </c>
+      <c r="B32">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1994</v>
+      </c>
+      <c r="B33">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1995</v>
+      </c>
+      <c r="B34">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1996</v>
+      </c>
+      <c r="B35">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1997</v>
+      </c>
+      <c r="B36">
+        <v>5088</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1998</v>
+      </c>
+      <c r="B37">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1999</v>
+      </c>
+      <c r="B38">
+        <v>4739</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2000</v>
+      </c>
+      <c r="B39">
+        <v>5013</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2001</v>
+      </c>
+      <c r="B40">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2002</v>
+      </c>
+      <c r="B41">
+        <v>5638</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2003</v>
+      </c>
+      <c r="B42">
+        <v>8218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2004</v>
+      </c>
+      <c r="B43">
+        <v>5705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2005</v>
+      </c>
+      <c r="B44">
+        <v>5268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2006</v>
+      </c>
+      <c r="B45">
+        <v>5463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2007</v>
+      </c>
+      <c r="B46">
+        <v>7104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2008</v>
+      </c>
+      <c r="B47">
+        <v>6474</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2009</v>
+      </c>
+      <c r="B48">
+        <v>5668</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2010</v>
+      </c>
+      <c r="B49">
+        <v>6329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2011</v>
+      </c>
+      <c r="B50">
+        <v>8957</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2012</v>
+      </c>
+      <c r="B51">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2013</v>
+      </c>
+      <c r="B52">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2014</v>
+      </c>
+      <c r="B53">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2015</v>
+      </c>
+      <c r="B54">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2016</v>
+      </c>
+      <c r="B55">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2017</v>
+      </c>
+      <c r="B56">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2018</v>
+      </c>
+      <c r="B57">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2019</v>
+      </c>
+      <c r="B58">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2020</v>
+      </c>
+      <c r="B59">
+        <v>1752</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1971</v>
+      </c>
+      <c r="B2">
+        <v>69.217535916540456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1972</v>
+      </c>
+      <c r="B3">
+        <v>12.698168737345069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1973</v>
+      </c>
+      <c r="B4">
+        <v>38.042460879306063</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1974</v>
+      </c>
+      <c r="B5">
+        <v>317.85539203892102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1975</v>
+      </c>
+      <c r="B6">
+        <v>952.03366529871698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1976</v>
+      </c>
+      <c r="B7">
+        <v>1100.0868489336449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1977</v>
+      </c>
+      <c r="B8">
+        <v>1019.437433430795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1978</v>
+      </c>
+      <c r="B9">
+        <v>706.18567274480768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1979</v>
+      </c>
+      <c r="B10">
+        <v>192.8419015652708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1980</v>
+      </c>
+      <c r="B11">
+        <v>72.25999226988327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1981</v>
+      </c>
+      <c r="B12">
+        <v>435.06348544005408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1982</v>
+      </c>
+      <c r="B13">
+        <v>704.97539436292459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1983</v>
+      </c>
+      <c r="B14">
+        <v>90.489476486534059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1984</v>
+      </c>
+      <c r="B15">
+        <v>45.772165324377717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1985</v>
+      </c>
+      <c r="B16">
+        <v>18.742155760534619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1986</v>
+      </c>
+      <c r="B17">
+        <v>255.22755029108211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1987</v>
+      </c>
+      <c r="B18">
+        <v>928.51138610677708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1988</v>
+      </c>
+      <c r="B19">
+        <v>186.77240080374841</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1989</v>
+      </c>
+      <c r="B20">
+        <v>515.8961645039318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1990</v>
+      </c>
+      <c r="B21">
+        <v>378.03975842845591</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1991</v>
+      </c>
+      <c r="B22">
+        <v>210.82062431293869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1992</v>
+      </c>
+      <c r="B23">
+        <v>710.53053674375974</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1993</v>
+      </c>
+      <c r="B24">
+        <v>269.30269331593388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1994</v>
+      </c>
+      <c r="B25">
+        <v>582.53279242080441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1995</v>
+      </c>
+      <c r="B26">
+        <v>878.22815686401032</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1996</v>
+      </c>
+      <c r="B27">
+        <v>194.85954516779111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1997</v>
+      </c>
+      <c r="B28">
+        <v>414.50727188181401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1998</v>
+      </c>
+      <c r="B29">
+        <v>1318.4394300777601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1999</v>
+      </c>
+      <c r="B30">
+        <v>472.17549771070281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2000</v>
+      </c>
+      <c r="B31">
+        <v>224.95852832307719</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2001</v>
+      </c>
+      <c r="B32">
+        <v>1254.3097765366299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2002</v>
+      </c>
+      <c r="B33">
+        <v>1688.497739173547</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2003</v>
+      </c>
+      <c r="B34">
+        <v>164.73479437512961</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2004</v>
+      </c>
+      <c r="B35">
+        <v>184.20887078056401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2005</v>
+      </c>
+      <c r="B36">
+        <v>764.15979584324441</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2006</v>
+      </c>
+      <c r="B37">
+        <v>227.80615865598551</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2007</v>
+      </c>
+      <c r="B38">
+        <v>656.37767889366614</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2008</v>
+      </c>
+      <c r="B39">
+        <v>551.08196393475748</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2009</v>
+      </c>
+      <c r="B40">
+        <v>112.5906347800388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2010</v>
+      </c>
+      <c r="B41">
+        <v>16.302219722768651</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2011</v>
+      </c>
+      <c r="B42">
+        <v>127.7503195787197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2012</v>
+      </c>
+      <c r="B43">
+        <v>609.56870190461973</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2013</v>
+      </c>
+      <c r="B44">
+        <v>116.5434498026034</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2014</v>
+      </c>
+      <c r="B45">
+        <v>16.71580934898364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2015</v>
+      </c>
+      <c r="B46">
+        <v>66.854975855249975</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2016</v>
+      </c>
+      <c r="B47">
+        <v>281.65687976411311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2017</v>
+      </c>
+      <c r="B48">
+        <v>65.932842588708922</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2018</v>
+      </c>
+      <c r="B49">
+        <v>119.2755701471354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2019</v>
+      </c>
+      <c r="B50">
+        <v>20.541180707299219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2020</v>
+      </c>
+      <c r="B51">
+        <v>7.7865514639922226</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>